--- a/data/22_Questions_06.xlsx
+++ b/data/22_Questions_06.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/CPX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{81EE82EA-BE9E-42B0-8A70-6911C44A32A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40695" yWindow="1620" windowWidth="33675" windowHeight="15435" xr2:uid="{ABCB648B-F16E-4ED9-8EE5-880306947D1E}"/>
+    <workbookView xWindow="40695" yWindow="1620" windowWidth="33675" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="71">
   <si>
     <t>Chief complaint 라서 당연히 제일 중요합니다.</t>
   </si>
@@ -228,15 +227,87 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>만성변비의 흔한 원인 5가지는</t>
+    <t xml:space="preserve">변비와 동반된 소화기증상을 확인하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대장암과 관련된 위험인자 유무를 확인하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">복부 수술력, 고혈압에 의한 고혈압약제, 당뇨에서 동반되는 이차성 변비의 감별진단를 위한 필수적인 질문입니다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">갑상선 질환, 당뇨병,  Scleroderma등에 등에 의한 이차성 변비와의 감별진단에 중요한 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변비를 진단 기준 준 과도한 힘주기, 잔변감등을 확인하는  중요한 병력입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대장암과 같은 악성종양에 의한 이차성 변비를  Alarm symptom을 의미하는 중요한 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">장기간 만성변비의 자가 치료 방법등을 확인하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성 변비는 일주일에 3회 미만의 배변 횟수가 진단기준이므로 배변 횟수는 진단에 필수적인 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변비시 보이는 변의 형태 중 Bristol type 1 을 확인할 수 있으며, Britol  type 1, 2는 대장통과시간이 Delayed colon transit 의 가능성이 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 검사를 해보아야 겠지만 일차성 변비의 가능성이 있습니다. 그리고 이차성 변비에 대한 검사를 해야 할 것 같습니다. 너무 걱정하지 마세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직장수지검사를 먼저 시행하고 혈액검사, 항문기능검사, 대장통과시간등을 검사해야 할 것 같습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>만성변비의 흔한 원인 5가지는 식이습관과 활동력 감소 같은 생활 습관, 장운동을 감소시키는 항고혈압제, 소염제, 마약성 진통제 등의 약제, 과민성 대장증후군, 당뇨, 파킨슨 병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">등이 있습니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">26세 여자환자에서 중학교 때 시작되었다면 만성 변비임을 시사하는 소견이며, 신경쓰면 악화되는 소견은 과민성 장증후군의 가능성이 있습니다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변비의 원인 중 기능성이라기 보다는 식습관과 관련된 만성 변비의 가능성이 많습니다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">만성변비에서  Defecation sense 가 현저히 감소 되어 있음을 의미하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>변비와 관련된 식이 습관과 생활 습관을 확인할 수 있는 질문으로 섬유질 섭취 부족, 작은 활동량이 변비의 원인임을 시사하는 질문 입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장종양등의 가족력은 대장암에 의한 이차성 변비를 확인할 수 있는 질문입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">변비와 관련된 대장암, 치핵등의 항문질환, 과민성 장증후군에 동반된 변비 유무를 확인할 수 있는질문입니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +357,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -371,6 +451,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,11 +768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7E7CE2-D32C-4075-BB3A-F845BF42855D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -745,7 +828,9 @@
       <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="15" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
@@ -757,7 +842,9 @@
       <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="14" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
@@ -769,7 +856,9 @@
       <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
@@ -781,7 +870,9 @@
       <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14"/>
+      <c r="D7" s="14" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
@@ -790,8 +881,12 @@
       <c r="B8" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -803,7 +898,9 @@
       <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
@@ -815,7 +912,9 @@
       <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
@@ -827,7 +926,9 @@
       <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -839,7 +940,9 @@
       <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -851,7 +954,9 @@
       <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -863,7 +968,9 @@
       <c r="C14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
@@ -875,7 +982,9 @@
       <c r="C15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -887,7 +996,9 @@
       <c r="C16" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -899,7 +1010,9 @@
       <c r="C17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
@@ -911,7 +1024,9 @@
       <c r="C18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
@@ -923,7 +1038,9 @@
       <c r="C19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
@@ -946,7 +1063,9 @@
       <c r="C22" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
@@ -958,7 +1077,9 @@
       <c r="C23" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -970,14 +1091,16 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>2</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
@@ -995,7 +1118,7 @@
       <c r="B30"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D18">
+  <sortState ref="B3:D18">
     <sortCondition ref="B4:B18"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
